--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BAITAP_JS_CAPTONE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BAITAP_JS_CAPTONE21\NVHBASHOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Dev1</t>
-  </si>
-  <si>
-    <t>Dev2</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -77,13 +71,22 @@
     <t>30/6/2025</t>
   </si>
   <si>
-    <t>31/6/2025</t>
-  </si>
-  <si>
     <t>Trần Bảo An</t>
   </si>
   <si>
     <t>Làm giao diện người dùng</t>
+  </si>
+  <si>
+    <t>23/6/2025</t>
+  </si>
+  <si>
+    <t>29/6/2025</t>
+  </si>
+  <si>
+    <t>Ngyễn Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Làm giao diện admin</t>
   </si>
 </sst>
 </file>
@@ -605,11 +608,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,61 +653,63 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="16">
-        <v>46001</v>
-      </c>
-      <c r="C2" s="16">
-        <v>46004</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="17">
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F2" s="19"/>
-      <c r="G2" s="16">
-        <v>46005</v>
+      <c r="G2" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="17">
         <v>1</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3" s="6"/>
     </row>
